--- a/CDC 2048 C++.xlsx
+++ b/CDC 2048 C++.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="708" yWindow="504" windowWidth="15612" windowHeight="4452"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="classe" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Général" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Fonctions" sheetId="3" r:id="rId6"/>
+    <sheet name="classe" sheetId="1" r:id="rId1"/>
+    <sheet name="Général" sheetId="2" r:id="rId2"/>
+    <sheet name="Fonctions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -375,26 +378,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -404,7 +416,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -426,154 +438,160 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -763,405 +781,410 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.86"/>
-    <col customWidth="1" min="3" max="3" width="66.43"/>
-    <col customWidth="1" min="4" max="4" width="4.0"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="32.43"/>
-    <col customWidth="1" min="7" max="7" width="3.43"/>
-    <col customWidth="1" min="9" max="9" width="32.57"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="25"/>
+      <c r="E3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="25"/>
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4">
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="13" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="13" t="s">
+      <c r="C7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="13" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="18"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="15"/>
-      <c r="C10" s="18"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="18"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="19" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="15"/>
-      <c r="C13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14">
-      <c r="B14" s="15"/>
-      <c r="C14" s="18"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="23"/>
+      <c r="E15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="E19" s="13" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="E19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="13" t="s">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="13" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="19" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="13" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="13" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="13" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="13" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="13" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="13" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-    </row>
-    <row r="40">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
@@ -1171,30 +1194,31 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="3" max="4" width="27.43"/>
-    <col customWidth="1" min="5" max="5" width="39.14"/>
-    <col customWidth="1" min="6" max="6" width="28.14"/>
-    <col customWidth="1" min="7" max="7" width="26.57"/>
-    <col customWidth="1" min="8" max="8" width="18.14"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="42.0" customHeight="1">
+    <row r="4" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1202,34 +1226,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1247,29 +1271,29 @@
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="G13" s="10"/>
-    </row>
-    <row r="16">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="4:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1294,14 +1318,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="4:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="2"/>
@@ -1312,7 +1336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="4:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1326,17 +1350,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="4:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="4:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="4:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1348,21 +1372,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,6 +1402,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>